--- a/source-data/chile/chile_regions.xlsx
+++ b/source-data/chile/chile_regions.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7586EDDE-4054-D840-9DD4-844B984CEC6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED3810E-D197-DE45-9394-94E363FECB92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="15940" xr2:uid="{DE1725C5-C8CF-ED43-B0A2-22B4081FC9D3}"/>
+    <workbookView xWindow="6820" yWindow="460" windowWidth="16160" windowHeight="15940" xr2:uid="{DE1725C5-C8CF-ED43-B0A2-22B4081FC9D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>VI Región del Libertador General Bernardo OHiggins</t>
   </si>
@@ -145,6 +145,57 @@
   </si>
   <si>
     <t>population</t>
+  </si>
+  <si>
+    <t>region_long_name</t>
+  </si>
+  <si>
+    <t>Tarapacá</t>
+  </si>
+  <si>
+    <t>Antofagasta</t>
+  </si>
+  <si>
+    <t>Atacama</t>
+  </si>
+  <si>
+    <t>Coquimbo</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>Libertador General Bernardo OHiggins</t>
+  </si>
+  <si>
+    <t>Maule</t>
+  </si>
+  <si>
+    <t>Biobio</t>
+  </si>
+  <si>
+    <t>Ñuble</t>
+  </si>
+  <si>
+    <t>Araucanía</t>
+  </si>
+  <si>
+    <t>Los Lagos</t>
+  </si>
+  <si>
+    <t>General Carlos Ibáñez del Campo's Aysén</t>
+  </si>
+  <si>
+    <t>Magellan and Chilean Antarctica</t>
+  </si>
+  <si>
+    <t>Santiago Metropolitan</t>
+  </si>
+  <si>
+    <t>Los Ríos</t>
+  </si>
+  <si>
+    <t>Arica y Parinacota</t>
   </si>
 </sst>
 </file>
@@ -496,35 +547,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B989ECC0-038A-8E40-B823-E9D654D2D47E}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -532,16 +587,19 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>17574003</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -549,16 +607,19 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>330558</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -566,16 +627,19 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>607534</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -583,16 +647,19 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>286168</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -600,16 +667,19 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>757586</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -617,16 +687,19 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1815902</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -634,16 +707,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>914555</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -651,16 +727,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1044950</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -668,16 +747,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2037414</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -685,13 +767,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -699,16 +784,19 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>957224</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -716,16 +804,19 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>828708</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -733,16 +824,19 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>11</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>103158</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -750,16 +844,19 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>12</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>166533</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -767,16 +864,19 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>13</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>7112808</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -784,16 +884,19 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>14</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>384837</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -801,12 +904,15 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>15</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>226068</v>
       </c>
     </row>
